--- a/server/orders/OrderConfirmationTmpEng.xlsx
+++ b/server/orders/OrderConfirmationTmpEng.xlsx
@@ -632,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -832,13 +832,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2336,224 +2329,374 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="26" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2567,31 +2710,52 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2627,38 +2791,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2666,374 +2808,225 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3457,7 +3450,7 @@
   <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:K8"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,20 +3481,20 @@
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
       <c r="G1" s="83"/>
-      <c r="H1" s="341" t="s">
+      <c r="H1" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
       <c r="T1" s="83"/>
       <c r="U1" s="83"/>
       <c r="V1" s="83"/>
@@ -3510,10 +3503,10 @@
       <c r="Y1" s="83"/>
       <c r="Z1" s="84"/>
       <c r="AA1" s="113"/>
-      <c r="AB1" s="343" t="s">
+      <c r="AB1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="344"/>
+      <c r="AC1" s="123"/>
       <c r="AD1" s="113"/>
       <c r="AE1" s="114"/>
     </row>
@@ -3525,20 +3518,20 @@
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
-      <c r="H2" s="345" t="s">
+      <c r="H2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
-      <c r="R2" s="303"/>
-      <c r="S2" s="303"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
       <c r="T2" s="86"/>
       <c r="U2" s="86"/>
       <c r="V2" s="86"/>
@@ -3547,10 +3540,10 @@
       <c r="Y2" s="86"/>
       <c r="Z2" s="87"/>
       <c r="AA2" s="115"/>
-      <c r="AB2" s="346" t="s">
+      <c r="AB2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="347"/>
+      <c r="AC2" s="127"/>
       <c r="AD2" s="116"/>
       <c r="AE2" s="117"/>
       <c r="AG2" s="75">
@@ -3566,20 +3559,20 @@
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
-      <c r="H3" s="345" t="s">
+      <c r="H3" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="303"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
       <c r="V3" s="86"/>
@@ -3588,11 +3581,11 @@
       <c r="Y3" s="86"/>
       <c r="Z3" s="87"/>
       <c r="AA3" s="115"/>
-      <c r="AB3" s="346" t="str">
+      <c r="AB3" s="126" t="str">
         <f>H3</f>
         <v>Fire 1</v>
       </c>
-      <c r="AC3" s="347"/>
+      <c r="AC3" s="127"/>
       <c r="AD3" s="116"/>
       <c r="AE3" s="117"/>
       <c r="AG3" s="75">
@@ -3608,20 +3601,20 @@
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
       <c r="G4" s="86"/>
-      <c r="H4" s="348" t="s">
+      <c r="H4" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303"/>
-      <c r="S4" s="303"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
       <c r="T4" s="86"/>
       <c r="U4" s="86"/>
       <c r="V4" s="86"/>
@@ -3630,11 +3623,11 @@
       <c r="Y4" s="86"/>
       <c r="Z4" s="87"/>
       <c r="AA4" s="115"/>
-      <c r="AB4" s="349" t="str">
+      <c r="AB4" s="133" t="str">
         <f>H4</f>
         <v>We appreciate Your ordering  Fire 1 rig</v>
       </c>
-      <c r="AC4" s="347"/>
+      <c r="AC4" s="127"/>
       <c r="AD4" s="116"/>
       <c r="AE4" s="117"/>
     </row>
@@ -3646,20 +3639,20 @@
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
-      <c r="H5" s="350" t="s">
+      <c r="H5" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="303"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
       <c r="T5" s="86"/>
       <c r="U5" s="86"/>
       <c r="V5" s="86"/>
@@ -3668,11 +3661,11 @@
       <c r="Y5" s="86"/>
       <c r="Z5" s="87"/>
       <c r="AA5" s="115"/>
-      <c r="AB5" s="351" t="str">
+      <c r="AB5" s="135" t="str">
         <f>H5</f>
         <v xml:space="preserve">Please check carefully information below: </v>
       </c>
-      <c r="AC5" s="347"/>
+      <c r="AC5" s="127"/>
       <c r="AD5" s="116"/>
       <c r="AE5" s="117"/>
     </row>
@@ -3684,20 +3677,20 @@
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
       <c r="G6" s="89"/>
-      <c r="H6" s="352" t="s">
+      <c r="H6" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="211"/>
-      <c r="S6" s="211"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
       <c r="T6" s="89"/>
       <c r="U6" s="89"/>
       <c r="V6" s="89"/>
@@ -3706,44 +3699,44 @@
       <c r="Y6" s="89"/>
       <c r="Z6" s="90"/>
       <c r="AA6" s="115"/>
-      <c r="AB6" s="351"/>
-      <c r="AC6" s="353"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="138"/>
       <c r="AD6" s="118"/>
       <c r="AE6" s="117"/>
     </row>
     <row r="7" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="220" t="s">
+      <c r="A7" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="338"/>
-      <c r="S7" s="313" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="221"/>
-      <c r="W7" s="221"/>
-      <c r="X7" s="221"/>
-      <c r="Y7" s="339" t="s">
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="340"/>
+      <c r="Z7" s="146"/>
       <c r="AA7" s="115"/>
       <c r="AB7" s="68"/>
       <c r="AC7" s="68"/>
@@ -3751,40 +3744,40 @@
       <c r="AE7" s="117"/>
     </row>
     <row r="8" spans="1:33" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="330" t="s">
+      <c r="A8" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="250" t="s">
+      <c r="B8" s="148"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="214"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="334"/>
-      <c r="Q8" s="334"/>
-      <c r="R8" s="335"/>
-      <c r="S8" s="250" t="s">
+      <c r="M8" s="148"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="192"/>
-      <c r="U8" s="328"/>
-      <c r="V8" s="331"/>
-      <c r="W8" s="250" t="s">
+      <c r="T8" s="129"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="328"/>
-      <c r="Z8" s="329"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="139"/>
       <c r="AA8" s="115"/>
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
@@ -3792,40 +3785,40 @@
       <c r="AE8" s="117"/>
     </row>
     <row r="9" spans="1:33" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="330" t="s">
+      <c r="A9" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="333"/>
-      <c r="L9" s="249" t="s">
+      <c r="B9" s="148"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="214"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="334"/>
-      <c r="Q9" s="334"/>
-      <c r="R9" s="335"/>
-      <c r="S9" s="250" t="s">
+      <c r="M9" s="148"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="192"/>
-      <c r="U9" s="328"/>
-      <c r="V9" s="331"/>
-      <c r="W9" s="250" t="s">
+      <c r="T9" s="129"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="328"/>
-      <c r="Z9" s="329"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="139"/>
       <c r="AA9" s="115"/>
       <c r="AB9" s="1" t="s">
         <v>67</v>
@@ -3837,40 +3830,40 @@
       <c r="AE9" s="117"/>
     </row>
     <row r="10" spans="1:33" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="214"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="332"/>
-      <c r="J10" s="332"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="250" t="s">
+      <c r="B10" s="148"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="214"/>
-      <c r="N10" s="192"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="334"/>
-      <c r="Q10" s="334"/>
-      <c r="R10" s="335"/>
-      <c r="S10" s="250" t="s">
+      <c r="M10" s="148"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="192"/>
-      <c r="U10" s="328"/>
-      <c r="V10" s="331"/>
-      <c r="W10" s="250" t="s">
+      <c r="T10" s="129"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="328"/>
-      <c r="Z10" s="329"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="139"/>
       <c r="AA10" s="115"/>
       <c r="AB10" s="2" t="str">
         <f>PriceList!F3</f>
@@ -3878,46 +3871,46 @@
       </c>
       <c r="AC10" s="3">
         <f>PriceList!G3</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="AD10" s="116"/>
       <c r="AE10" s="117"/>
     </row>
     <row r="11" spans="1:33" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="330" t="s">
+      <c r="A11" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="214"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="332"/>
-      <c r="J11" s="332"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="250" t="s">
+      <c r="B11" s="148"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="214"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="334"/>
-      <c r="Q11" s="336"/>
-      <c r="R11" s="337"/>
-      <c r="S11" s="250" t="s">
+      <c r="M11" s="148"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="192"/>
-      <c r="U11" s="328"/>
-      <c r="V11" s="331"/>
-      <c r="W11" s="249" t="s">
+      <c r="T11" s="129"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="328"/>
-      <c r="Z11" s="329"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="139"/>
       <c r="AA11" s="115"/>
       <c r="AB11" s="2" t="str">
         <f>PriceList!F4</f>
@@ -3931,40 +3924,40 @@
       <c r="AE11" s="117"/>
     </row>
     <row r="12" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="320" t="s">
+      <c r="A12" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="322"/>
-      <c r="F12" s="322"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="322"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="323"/>
-      <c r="L12" s="301" t="s">
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="235"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="324"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="324"/>
-      <c r="R12" s="326"/>
-      <c r="S12" s="327" t="s">
+      <c r="M12" s="164"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="237"/>
-      <c r="U12" s="310"/>
-      <c r="V12" s="311"/>
-      <c r="W12" s="301" t="s">
+      <c r="T12" s="165"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="310"/>
-      <c r="Z12" s="312"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="181"/>
       <c r="AA12" s="115"/>
       <c r="AB12" s="2" t="str">
         <f>PriceList!F5</f>
@@ -3978,42 +3971,42 @@
       <c r="AE12" s="117"/>
     </row>
     <row r="13" spans="1:33" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="313" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="222"/>
-      <c r="H13" s="313" t="s">
+      <c r="G13" s="159"/>
+      <c r="H13" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="221"/>
-      <c r="J13" s="222"/>
-      <c r="K13" s="313" t="s">
+      <c r="I13" s="144"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="317" t="s">
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="318"/>
-      <c r="P13" s="318"/>
-      <c r="Q13" s="318"/>
-      <c r="R13" s="318"/>
-      <c r="S13" s="318"/>
-      <c r="T13" s="318"/>
-      <c r="U13" s="318"/>
-      <c r="V13" s="318"/>
-      <c r="W13" s="318"/>
-      <c r="X13" s="318"/>
-      <c r="Y13" s="318"/>
-      <c r="Z13" s="319"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="162"/>
       <c r="AA13" s="115"/>
       <c r="AB13" s="2" t="str">
         <f>PriceList!F6</f>
@@ -4030,39 +4023,39 @@
       <c r="A14" s="91">
         <v>1</v>
       </c>
-      <c r="B14" s="250" t="s">
+      <c r="B14" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="214"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="314" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="315"/>
-      <c r="P14" s="307"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="305" t="s">
+      <c r="O14" s="185"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="306"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="307"/>
-      <c r="V14" s="305" t="s">
+      <c r="S14" s="175"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="306"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="307"/>
-      <c r="Z14" s="308"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="177"/>
       <c r="AA14" s="115"/>
       <c r="AB14" s="2" t="str">
         <f>PriceList!F7</f>
@@ -4070,48 +4063,48 @@
       </c>
       <c r="AC14" s="3">
         <f>PriceList!G7</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="AD14" s="116"/>
       <c r="AE14" s="117"/>
     </row>
     <row r="15" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="204">
+      <c r="A15" s="272">
         <v>2</v>
       </c>
-      <c r="B15" s="250" t="s">
+      <c r="B15" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="214"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="309" t="s">
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="306"/>
-      <c r="P15" s="307"/>
-      <c r="Q15" s="307"/>
-      <c r="R15" s="316" t="s">
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="S15" s="306"/>
-      <c r="T15" s="307"/>
-      <c r="U15" s="307"/>
-      <c r="V15" s="316" t="s">
+      <c r="S15" s="175"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="306"/>
-      <c r="X15" s="306"/>
-      <c r="Y15" s="307"/>
-      <c r="Z15" s="308"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="177"/>
       <c r="AA15" s="115"/>
       <c r="AB15" s="2" t="str">
         <f>PriceList!F8</f>
@@ -4125,36 +4118,36 @@
       <c r="AE15" s="117"/>
     </row>
     <row r="16" spans="1:33" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="205"/>
-      <c r="B16" s="250" t="s">
+      <c r="A16" s="273"/>
+      <c r="B16" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="265" t="s">
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
+      <c r="N16" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="266"/>
-      <c r="S16" s="267"/>
-      <c r="T16" s="302"/>
-      <c r="U16" s="302"/>
-      <c r="V16" s="303"/>
-      <c r="W16" s="303"/>
-      <c r="X16" s="303"/>
-      <c r="Y16" s="303"/>
-      <c r="Z16" s="304"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="196"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="188"/>
       <c r="AA16" s="115"/>
       <c r="AB16" s="2" t="str">
         <f>PriceList!F9</f>
@@ -4168,36 +4161,36 @@
       <c r="AE16" s="117"/>
     </row>
     <row r="17" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="206"/>
-      <c r="B17" s="250" t="s">
+      <c r="A17" s="274"/>
+      <c r="B17" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="239" t="s">
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="O17" s="240"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="240"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="240"/>
-      <c r="V17" s="240"/>
-      <c r="W17" s="240"/>
-      <c r="X17" s="240"/>
-      <c r="Y17" s="240"/>
-      <c r="Z17" s="241"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="193"/>
       <c r="AA17" s="115"/>
       <c r="AB17" s="2" t="str">
         <f>PriceList!F10</f>
@@ -4214,38 +4207,38 @@
       <c r="A18" s="91">
         <v>3</v>
       </c>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="243" t="s">
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="244"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="244"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
       <c r="S18" s="72"/>
-      <c r="T18" s="263" t="s">
+      <c r="T18" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="177"/>
-      <c r="V18" s="264"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="200"/>
       <c r="W18" s="70"/>
-      <c r="X18" s="177" t="s">
+      <c r="X18" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="244"/>
+      <c r="Y18" s="190"/>
       <c r="Z18" s="71"/>
       <c r="AA18" s="115"/>
       <c r="AB18" s="2" t="str">
@@ -4263,37 +4256,37 @@
       <c r="A19" s="92">
         <v>4</v>
       </c>
-      <c r="B19" s="301" t="s">
+      <c r="B19" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="243" t="s">
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="244"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
       <c r="S19" s="72"/>
-      <c r="T19" s="263" t="s">
+      <c r="T19" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="U19" s="177"/>
-      <c r="V19" s="264"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="200"/>
       <c r="W19" s="72"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="294"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="201"/>
+      <c r="Z19" s="202"/>
       <c r="AA19" s="115"/>
       <c r="AB19" s="2" t="str">
         <f>PriceList!F12</f>
@@ -4310,38 +4303,38 @@
       <c r="A20" s="91">
         <v>5</v>
       </c>
-      <c r="B20" s="297" t="s">
+      <c r="B20" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="298"/>
-      <c r="D20" s="298"/>
-      <c r="E20" s="298"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="243" t="s">
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="O20" s="244"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="190"/>
       <c r="S20" s="72"/>
-      <c r="T20" s="263" t="s">
+      <c r="T20" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="177"/>
-      <c r="V20" s="264"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="200"/>
       <c r="W20" s="70"/>
-      <c r="X20" s="177" t="s">
+      <c r="X20" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="244"/>
+      <c r="Y20" s="190"/>
       <c r="Z20" s="71"/>
       <c r="AA20" s="115"/>
       <c r="AB20" s="2" t="str">
@@ -4356,40 +4349,40 @@
       <c r="AE20" s="117"/>
     </row>
     <row r="21" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="204">
+      <c r="A21" s="272">
         <v>6</v>
       </c>
-      <c r="B21" s="289" t="s">
+      <c r="B21" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="243" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
       <c r="S21" s="72"/>
-      <c r="T21" s="263" t="s">
+      <c r="T21" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="177"/>
-      <c r="V21" s="264"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="200"/>
       <c r="W21" s="72"/>
-      <c r="X21" s="271"/>
-      <c r="Y21" s="271"/>
-      <c r="Z21" s="294"/>
+      <c r="X21" s="201"/>
+      <c r="Y21" s="201"/>
+      <c r="Z21" s="202"/>
       <c r="AA21" s="115"/>
       <c r="AB21" s="2" t="str">
         <f>PriceList!F14</f>
@@ -4403,38 +4396,38 @@
       <c r="AE21" s="117"/>
     </row>
     <row r="22" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="205"/>
-      <c r="B22" s="289" t="s">
+      <c r="A22" s="273"/>
+      <c r="B22" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="243" t="s">
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="244"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
       <c r="S22" s="72"/>
-      <c r="T22" s="263" t="s">
+      <c r="T22" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="177"/>
-      <c r="V22" s="264"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="200"/>
       <c r="W22" s="70"/>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="294"/>
+      <c r="X22" s="201"/>
+      <c r="Y22" s="201"/>
+      <c r="Z22" s="202"/>
       <c r="AA22" s="115"/>
       <c r="AB22" s="2" t="str">
         <f>PriceList!F15</f>
@@ -4448,38 +4441,38 @@
       <c r="AE22" s="117"/>
     </row>
     <row r="23" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="206"/>
-      <c r="B23" s="216" t="s">
+      <c r="A23" s="274"/>
+      <c r="B23" s="280" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="243" t="s">
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="O23" s="244"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
       <c r="S23" s="72"/>
-      <c r="T23" s="263" t="s">
+      <c r="T23" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="U23" s="177"/>
-      <c r="V23" s="264"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="200"/>
       <c r="W23" s="72"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="294"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="201"/>
+      <c r="Z23" s="202"/>
       <c r="AA23" s="115"/>
       <c r="AB23" s="2" t="str">
         <f>PriceList!F16</f>
@@ -4496,38 +4489,38 @@
       <c r="A24" s="91">
         <v>7</v>
       </c>
-      <c r="B24" s="250" t="s">
+      <c r="B24" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="243" t="s">
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="177"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="177"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="189"/>
       <c r="S24" s="70"/>
-      <c r="T24" s="295" t="s">
+      <c r="T24" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="U24" s="288"/>
-      <c r="V24" s="296"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="213"/>
       <c r="W24" s="70"/>
-      <c r="X24" s="299" t="s">
+      <c r="X24" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="Y24" s="299"/>
+      <c r="Y24" s="214"/>
       <c r="Z24" s="71"/>
       <c r="AA24" s="115"/>
       <c r="AB24" s="2" t="str">
@@ -4545,38 +4538,38 @@
       <c r="A25" s="93">
         <v>8</v>
       </c>
-      <c r="B25" s="236" t="s">
+      <c r="B25" s="262" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="243" t="s">
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="O25" s="244"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="190"/>
       <c r="S25" s="72"/>
-      <c r="T25" s="263">
+      <c r="T25" s="199">
         <v>550</v>
       </c>
-      <c r="U25" s="177"/>
-      <c r="V25" s="264"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="200"/>
       <c r="W25" s="72"/>
-      <c r="X25" s="177">
+      <c r="X25" s="189">
         <v>600</v>
       </c>
-      <c r="Y25" s="244"/>
+      <c r="Y25" s="190"/>
       <c r="Z25" s="73"/>
       <c r="AA25" s="115"/>
       <c r="AB25" s="2" t="str">
@@ -4594,35 +4587,35 @@
       <c r="A26" s="91">
         <v>9</v>
       </c>
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="298"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="265" t="s">
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="194" t="s">
         <v>168</v>
       </c>
-      <c r="O26" s="266"/>
-      <c r="P26" s="266"/>
-      <c r="Q26" s="266"/>
-      <c r="R26" s="266"/>
-      <c r="S26" s="266"/>
-      <c r="T26" s="266"/>
-      <c r="U26" s="266"/>
-      <c r="V26" s="267"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="195"/>
+      <c r="S26" s="195"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
+      <c r="V26" s="196"/>
       <c r="W26" s="79"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="271"/>
-      <c r="Z26" s="294"/>
+      <c r="X26" s="201"/>
+      <c r="Y26" s="201"/>
+      <c r="Z26" s="202"/>
       <c r="AA26" s="115"/>
       <c r="AB26" s="2" t="str">
         <f>PriceList!F19</f>
@@ -4639,35 +4632,35 @@
       <c r="A27" s="94">
         <v>10</v>
       </c>
-      <c r="B27" s="291" t="s">
+      <c r="B27" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="292"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="293"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="239" t="s">
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="240"/>
-      <c r="P27" s="240"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="240"/>
-      <c r="S27" s="240"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="240"/>
-      <c r="V27" s="240"/>
-      <c r="W27" s="240"/>
-      <c r="X27" s="240"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="241"/>
+      <c r="O27" s="192"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="192"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="192"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="192"/>
+      <c r="Z27" s="193"/>
       <c r="AA27" s="115"/>
       <c r="AB27" s="2" t="str">
         <f>PriceList!F20</f>
@@ -4684,37 +4677,37 @@
       <c r="A28" s="91">
         <v>11</v>
       </c>
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="243" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="244"/>
-      <c r="P28" s="244"/>
-      <c r="Q28" s="244"/>
-      <c r="R28" s="244"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="190"/>
+      <c r="R28" s="190"/>
       <c r="S28" s="72"/>
-      <c r="T28" s="177" t="s">
+      <c r="T28" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="U28" s="244"/>
-      <c r="V28" s="244"/>
+      <c r="U28" s="190"/>
+      <c r="V28" s="190"/>
       <c r="W28" s="72"/>
-      <c r="X28" s="242"/>
-      <c r="Y28" s="242"/>
-      <c r="Z28" s="172"/>
+      <c r="X28" s="237"/>
+      <c r="Y28" s="237"/>
+      <c r="Z28" s="238"/>
       <c r="AA28" s="115"/>
       <c r="AB28" s="2" t="str">
         <f>PriceList!F21</f>
@@ -4731,37 +4724,37 @@
       <c r="A29" s="91">
         <v>12</v>
       </c>
-      <c r="B29" s="250" t="s">
+      <c r="B29" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="214"/>
-      <c r="N29" s="243" t="s">
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="O29" s="244"/>
-      <c r="P29" s="244"/>
-      <c r="Q29" s="244"/>
-      <c r="R29" s="244"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="190"/>
+      <c r="R29" s="190"/>
       <c r="S29" s="72"/>
-      <c r="T29" s="177" t="s">
+      <c r="T29" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="U29" s="244"/>
-      <c r="V29" s="244"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
       <c r="W29" s="70"/>
-      <c r="X29" s="242"/>
-      <c r="Y29" s="242"/>
-      <c r="Z29" s="172"/>
+      <c r="X29" s="237"/>
+      <c r="Y29" s="237"/>
+      <c r="Z29" s="238"/>
       <c r="AA29" s="115"/>
       <c r="AB29" s="2" t="str">
         <f>PriceList!F22</f>
@@ -4778,37 +4771,37 @@
       <c r="A30" s="95">
         <v>13</v>
       </c>
-      <c r="B30" s="225" t="s">
+      <c r="B30" s="284" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="230"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="245" t="s">
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="256"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="264" t="s">
         <v>181</v>
       </c>
-      <c r="O30" s="246"/>
-      <c r="P30" s="246"/>
-      <c r="Q30" s="246"/>
-      <c r="R30" s="247"/>
+      <c r="O30" s="265"/>
+      <c r="P30" s="265"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="266"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="248" t="s">
+      <c r="T30" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="U30" s="246"/>
-      <c r="V30" s="247"/>
+      <c r="U30" s="265"/>
+      <c r="V30" s="266"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="242"/>
-      <c r="Y30" s="242"/>
-      <c r="Z30" s="172"/>
+      <c r="X30" s="237"/>
+      <c r="Y30" s="237"/>
+      <c r="Z30" s="238"/>
       <c r="AA30" s="115"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="3"/>
@@ -4816,40 +4809,40 @@
       <c r="AE30" s="117"/>
     </row>
     <row r="31" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="221" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="J31" s="223"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="243" t="s">
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="283"/>
+      <c r="N31" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="O31" s="244"/>
-      <c r="P31" s="244"/>
-      <c r="Q31" s="244"/>
-      <c r="R31" s="244"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="190"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="177" t="s">
+      <c r="T31" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="U31" s="244"/>
-      <c r="V31" s="244"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="190"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="242"/>
-      <c r="Z31" s="172"/>
+      <c r="X31" s="237"/>
+      <c r="Y31" s="237"/>
+      <c r="Z31" s="238"/>
       <c r="AA31" s="115"/>
       <c r="AB31" s="2" t="str">
         <f>PriceList!F23</f>
@@ -4868,33 +4861,33 @@
       <c r="C32" s="107">
         <v>9</v>
       </c>
-      <c r="D32" s="231"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="233"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
       <c r="G32" s="101"/>
       <c r="H32" s="99"/>
-      <c r="I32" s="234" t="s">
+      <c r="I32" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="235"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="239" t="s">
+      <c r="N32" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
-      <c r="W32" s="240"/>
-      <c r="X32" s="240"/>
-      <c r="Y32" s="240"/>
-      <c r="Z32" s="241"/>
+      <c r="O32" s="192"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="192"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="192"/>
+      <c r="V32" s="192"/>
+      <c r="W32" s="192"/>
+      <c r="X32" s="192"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="193"/>
       <c r="AA32" s="115"/>
       <c r="AB32" s="2" t="str">
         <f>PriceList!F24</f>
@@ -4912,36 +4905,36 @@
       <c r="B33" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
       <c r="E33" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
       <c r="H33" s="100"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="270"/>
-      <c r="K33" s="270"/>
-      <c r="L33" s="270"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
       <c r="M33" s="96"/>
-      <c r="N33" s="287" t="s">
+      <c r="N33" s="236" t="s">
         <v>99</v>
       </c>
-      <c r="O33" s="288"/>
-      <c r="P33" s="288"/>
-      <c r="Q33" s="288"/>
-      <c r="R33" s="288"/>
+      <c r="O33" s="212"/>
+      <c r="P33" s="212"/>
+      <c r="Q33" s="212"/>
+      <c r="R33" s="212"/>
       <c r="S33" s="72"/>
-      <c r="T33" s="271" t="s">
+      <c r="T33" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="258"/>
-      <c r="Y33" s="258"/>
-      <c r="Z33" s="259"/>
+      <c r="U33" s="201"/>
+      <c r="V33" s="201"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="218"/>
+      <c r="Y33" s="218"/>
+      <c r="Z33" s="219"/>
       <c r="AA33" s="115"/>
       <c r="AB33" s="2" t="str">
         <f>PriceList!F25</f>
@@ -4959,38 +4952,38 @@
       <c r="B34" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="268"/>
-      <c r="D34" s="268"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
       <c r="E34" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
       <c r="H34" s="100"/>
-      <c r="I34" s="273" t="s">
+      <c r="I34" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="274"/>
-      <c r="K34" s="274"/>
-      <c r="L34" s="274"/>
+      <c r="J34" s="223"/>
+      <c r="K34" s="223"/>
+      <c r="L34" s="223"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="243" t="s">
+      <c r="N34" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="177"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="189"/>
+      <c r="Q34" s="189"/>
+      <c r="R34" s="189"/>
       <c r="S34" s="72"/>
-      <c r="T34" s="284" t="s">
+      <c r="T34" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="U34" s="284"/>
-      <c r="V34" s="284"/>
-      <c r="W34" s="284"/>
-      <c r="X34" s="285"/>
-      <c r="Y34" s="285"/>
-      <c r="Z34" s="286"/>
+      <c r="U34" s="233"/>
+      <c r="V34" s="233"/>
+      <c r="W34" s="233"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="234"/>
+      <c r="Z34" s="235"/>
       <c r="AA34" s="115"/>
       <c r="AB34" s="2" t="str">
         <f>PriceList!F26</f>
@@ -5009,36 +5002,36 @@
       <c r="C35" s="104">
         <v>3</v>
       </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="D35" s="275"/>
+      <c r="E35" s="276"/>
+      <c r="F35" s="277"/>
       <c r="G35" s="98"/>
       <c r="H35" s="97"/>
-      <c r="I35" s="210" t="s">
+      <c r="I35" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="212"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="279"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="243" t="s">
+      <c r="N35" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="177"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="189"/>
+      <c r="R35" s="189"/>
       <c r="S35" s="72"/>
-      <c r="T35" s="177" t="s">
+      <c r="T35" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="U35" s="244"/>
-      <c r="V35" s="244"/>
+      <c r="U35" s="190"/>
+      <c r="V35" s="190"/>
       <c r="W35" s="70"/>
-      <c r="X35" s="177" t="s">
+      <c r="X35" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="Y35" s="244"/>
+      <c r="Y35" s="190"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="118"/>
       <c r="AB35" s="2" t="str">
@@ -5053,41 +5046,41 @@
       <c r="AE35" s="117"/>
     </row>
     <row r="36" spans="1:31" s="74" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="276" t="s">
+      <c r="A36" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="277"/>
-      <c r="C36" s="278"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="280"/>
-      <c r="F36" s="281" t="s">
+      <c r="B36" s="226"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="282"/>
-      <c r="H36" s="283"/>
-      <c r="I36" s="279"/>
-      <c r="J36" s="280"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-      <c r="N36" s="275" t="s">
+      <c r="G36" s="231"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="228"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="231"/>
+      <c r="M36" s="231"/>
+      <c r="N36" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
+      <c r="O36" s="220"/>
+      <c r="P36" s="220"/>
+      <c r="Q36" s="220"/>
+      <c r="R36" s="220"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="178" t="s">
+      <c r="T36" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="U36" s="272"/>
-      <c r="V36" s="272"/>
+      <c r="U36" s="221"/>
+      <c r="V36" s="221"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="178" t="s">
+      <c r="X36" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="Y36" s="272"/>
+      <c r="Y36" s="221"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="118"/>
       <c r="AB36" s="2" t="str">
@@ -5102,42 +5095,42 @@
       <c r="AE36" s="117"/>
     </row>
     <row r="37" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="251" t="s">
+      <c r="A37" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="252"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="254" t="s">
+      <c r="B37" s="240"/>
+      <c r="C37" s="241"/>
+      <c r="D37" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="253"/>
-      <c r="F37" s="254" t="s">
+      <c r="E37" s="241"/>
+      <c r="F37" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="255"/>
-      <c r="H37" s="255"/>
-      <c r="I37" s="255"/>
-      <c r="J37" s="255"/>
-      <c r="K37" s="256"/>
-      <c r="L37" s="254" t="s">
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="244"/>
+      <c r="L37" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="M37" s="257"/>
-      <c r="N37" s="239" t="s">
+      <c r="M37" s="245"/>
+      <c r="N37" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="O37" s="240"/>
-      <c r="P37" s="240"/>
-      <c r="Q37" s="240"/>
-      <c r="R37" s="240"/>
-      <c r="S37" s="240"/>
-      <c r="T37" s="240"/>
-      <c r="U37" s="240"/>
-      <c r="V37" s="240"/>
-      <c r="W37" s="240"/>
-      <c r="X37" s="240"/>
-      <c r="Y37" s="240"/>
-      <c r="Z37" s="241"/>
+      <c r="O37" s="192"/>
+      <c r="P37" s="192"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="192"/>
+      <c r="S37" s="192"/>
+      <c r="T37" s="192"/>
+      <c r="U37" s="192"/>
+      <c r="V37" s="192"/>
+      <c r="W37" s="192"/>
+      <c r="X37" s="192"/>
+      <c r="Y37" s="192"/>
+      <c r="Z37" s="193"/>
       <c r="AA37" s="118"/>
       <c r="AB37" s="2" t="str">
         <f>PriceList!F29</f>
@@ -5151,27 +5144,27 @@
       <c r="AE37" s="117"/>
     </row>
     <row r="38" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
+      <c r="B38" s="250"/>
+      <c r="C38" s="251"/>
       <c r="D38" s="108" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="191" t="s">
+      <c r="F38" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="192"/>
+      <c r="G38" s="129"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="191" t="s">
+      <c r="I38" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="193"/>
+      <c r="J38" s="253"/>
       <c r="K38" s="69"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="195"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="254"/>
       <c r="N38" s="110" t="s">
         <v>16</v>
       </c>
@@ -5180,21 +5173,21 @@
         <v>187</v>
       </c>
       <c r="Q38" s="72"/>
-      <c r="R38" s="238" t="s">
+      <c r="R38" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="S38" s="238"/>
+      <c r="S38" s="263"/>
       <c r="T38" s="72"/>
-      <c r="U38" s="260" t="s">
+      <c r="U38" s="246" t="s">
         <v>129</v>
       </c>
-      <c r="V38" s="260"/>
+      <c r="V38" s="246"/>
       <c r="W38" s="72"/>
       <c r="X38" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="262"/>
+      <c r="Y38" s="247"/>
+      <c r="Z38" s="248"/>
       <c r="AA38" s="118"/>
       <c r="AB38" s="2" t="str">
         <f>PriceList!F30</f>
@@ -5208,44 +5201,44 @@
       <c r="AE38" s="117"/>
     </row>
     <row r="39" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="249" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="189"/>
-      <c r="C39" s="190"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="251"/>
       <c r="D39" s="108" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="191" t="s">
+      <c r="F39" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="192"/>
+      <c r="G39" s="129"/>
       <c r="H39" s="69"/>
-      <c r="I39" s="191" t="s">
+      <c r="I39" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="193"/>
+      <c r="J39" s="253"/>
       <c r="K39" s="69"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="243" t="s">
+      <c r="L39" s="149"/>
+      <c r="M39" s="254"/>
+      <c r="N39" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
+      <c r="O39" s="189"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="189"/>
       <c r="S39" s="72"/>
-      <c r="T39" s="263" t="s">
+      <c r="T39" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="U39" s="177"/>
-      <c r="V39" s="177"/>
-      <c r="W39" s="264"/>
+      <c r="U39" s="189"/>
+      <c r="V39" s="189"/>
+      <c r="W39" s="200"/>
       <c r="X39" s="72"/>
-      <c r="Y39" s="242"/>
-      <c r="Z39" s="172"/>
+      <c r="Y39" s="237"/>
+      <c r="Z39" s="238"/>
       <c r="AA39" s="118"/>
       <c r="AB39" s="2" t="str">
         <f>PriceList!F31</f>
@@ -5259,44 +5252,44 @@
       <c r="AE39" s="117"/>
     </row>
     <row r="40" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="189"/>
-      <c r="C40" s="190"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="251"/>
       <c r="D40" s="108" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="191" t="s">
+      <c r="F40" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="192"/>
+      <c r="G40" s="129"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="191" t="s">
+      <c r="I40" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="193"/>
+      <c r="J40" s="253"/>
       <c r="K40" s="69"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="177" t="s">
+      <c r="L40" s="149"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="177"/>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="177"/>
+      <c r="O40" s="189"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="189"/>
+      <c r="R40" s="189"/>
       <c r="S40" s="72"/>
-      <c r="T40" s="177" t="s">
+      <c r="T40" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="U40" s="177"/>
-      <c r="V40" s="177"/>
-      <c r="W40" s="177"/>
-      <c r="X40" s="258"/>
-      <c r="Y40" s="258"/>
-      <c r="Z40" s="259"/>
+      <c r="U40" s="189"/>
+      <c r="V40" s="189"/>
+      <c r="W40" s="189"/>
+      <c r="X40" s="218"/>
+      <c r="Y40" s="218"/>
+      <c r="Z40" s="219"/>
       <c r="AA40" s="118"/>
       <c r="AB40" s="2" t="str">
         <f>PriceList!F32</f>
@@ -5310,44 +5303,44 @@
       <c r="AE40" s="117"/>
     </row>
     <row r="41" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="190"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="251"/>
       <c r="D41" s="108" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="191" t="s">
+      <c r="F41" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="192"/>
+      <c r="G41" s="129"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="193"/>
+      <c r="J41" s="253"/>
       <c r="K41" s="69"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="177" t="s">
+      <c r="L41" s="149"/>
+      <c r="M41" s="254"/>
+      <c r="N41" s="189" t="s">
         <v>145</v>
       </c>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="189"/>
       <c r="S41" s="72"/>
-      <c r="T41" s="177" t="s">
+      <c r="T41" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="177"/>
-      <c r="V41" s="177"/>
-      <c r="W41" s="177"/>
+      <c r="U41" s="189"/>
+      <c r="V41" s="189"/>
+      <c r="W41" s="189"/>
       <c r="X41" s="72"/>
-      <c r="Y41" s="169"/>
-      <c r="Z41" s="170"/>
+      <c r="Y41" s="304"/>
+      <c r="Z41" s="305"/>
       <c r="AA41" s="118"/>
       <c r="AB41" s="2" t="str">
         <f>PriceList!F33</f>
@@ -5361,44 +5354,44 @@
       <c r="AE41" s="117"/>
     </row>
     <row r="42" spans="1:31" s="74" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="196" t="s">
+      <c r="A42" s="321" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="198"/>
+      <c r="B42" s="322"/>
+      <c r="C42" s="323"/>
       <c r="D42" s="109" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="199" t="s">
+      <c r="F42" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="200"/>
+      <c r="G42" s="324"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="199" t="s">
+      <c r="I42" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="201"/>
+      <c r="J42" s="269"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="202"/>
-      <c r="M42" s="203"/>
-      <c r="N42" s="177" t="s">
+      <c r="L42" s="270"/>
+      <c r="M42" s="271"/>
+      <c r="N42" s="189" t="s">
         <v>91</v>
       </c>
-      <c r="O42" s="177"/>
-      <c r="P42" s="177"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="177"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="189"/>
+      <c r="R42" s="189"/>
       <c r="S42" s="72"/>
-      <c r="T42" s="177" t="s">
+      <c r="T42" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="U42" s="177"/>
-      <c r="V42" s="177"/>
-      <c r="W42" s="177"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="189"/>
+      <c r="W42" s="189"/>
       <c r="X42" s="79"/>
-      <c r="Y42" s="171"/>
-      <c r="Z42" s="172"/>
+      <c r="Y42" s="306"/>
+      <c r="Z42" s="238"/>
       <c r="AA42" s="118"/>
       <c r="AB42" s="2" t="str">
         <f>PriceList!F34</f>
@@ -5412,36 +5405,36 @@
       <c r="AE42" s="117"/>
     </row>
     <row r="43" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="318" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="186"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="186"/>
-      <c r="L43" s="186"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="175" t="s">
+      <c r="B43" s="319"/>
+      <c r="C43" s="319"/>
+      <c r="D43" s="319"/>
+      <c r="E43" s="319"/>
+      <c r="F43" s="319"/>
+      <c r="G43" s="319"/>
+      <c r="H43" s="319"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="319"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="320"/>
+      <c r="N43" s="309" t="s">
         <v>130</v>
       </c>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
-      <c r="S43" s="175"/>
-      <c r="T43" s="175"/>
-      <c r="U43" s="175"/>
-      <c r="V43" s="175"/>
-      <c r="W43" s="176"/>
+      <c r="O43" s="309"/>
+      <c r="P43" s="309"/>
+      <c r="Q43" s="309"/>
+      <c r="R43" s="309"/>
+      <c r="S43" s="309"/>
+      <c r="T43" s="309"/>
+      <c r="U43" s="309"/>
+      <c r="V43" s="309"/>
+      <c r="W43" s="310"/>
       <c r="X43" s="8"/>
-      <c r="Y43" s="173"/>
-      <c r="Z43" s="174"/>
+      <c r="Y43" s="307"/>
+      <c r="Z43" s="308"/>
       <c r="AA43" s="118"/>
       <c r="AB43" s="2" t="str">
         <f>PriceList!F35</f>
@@ -5455,34 +5448,34 @@
       <c r="AE43" s="117"/>
     </row>
     <row r="44" spans="1:31" s="74" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="179"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="181"/>
-      <c r="N44" s="167" t="s">
+      <c r="A44" s="312"/>
+      <c r="B44" s="313"/>
+      <c r="C44" s="313"/>
+      <c r="D44" s="313"/>
+      <c r="E44" s="313"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="313"/>
+      <c r="J44" s="313"/>
+      <c r="K44" s="313"/>
+      <c r="L44" s="313"/>
+      <c r="M44" s="314"/>
+      <c r="N44" s="302" t="s">
         <v>131</v>
       </c>
-      <c r="O44" s="167"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="167"/>
-      <c r="U44" s="167"/>
-      <c r="V44" s="167"/>
-      <c r="W44" s="167"/>
-      <c r="X44" s="167"/>
-      <c r="Y44" s="167"/>
-      <c r="Z44" s="168"/>
+      <c r="O44" s="302"/>
+      <c r="P44" s="302"/>
+      <c r="Q44" s="302"/>
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="303"/>
       <c r="AA44" s="115"/>
       <c r="AB44" s="2" t="str">
         <f>PriceList!F36</f>
@@ -5496,35 +5489,35 @@
       <c r="AE44" s="117"/>
     </row>
     <row r="45" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="161"/>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="177" t="s">
+      <c r="A45" s="290"/>
+      <c r="B45" s="291"/>
+      <c r="C45" s="291"/>
+      <c r="D45" s="291"/>
+      <c r="E45" s="291"/>
+      <c r="F45" s="291"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="291"/>
+      <c r="I45" s="291"/>
+      <c r="J45" s="291"/>
+      <c r="K45" s="291"/>
+      <c r="L45" s="291"/>
+      <c r="M45" s="292"/>
+      <c r="N45" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="177"/>
-      <c r="R45" s="177"/>
-      <c r="S45" s="177"/>
+      <c r="O45" s="189"/>
+      <c r="P45" s="189"/>
+      <c r="Q45" s="189"/>
+      <c r="R45" s="189"/>
+      <c r="S45" s="189"/>
       <c r="T45" s="70"/>
-      <c r="U45" s="177" t="s">
+      <c r="U45" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="V45" s="177"/>
-      <c r="W45" s="177"/>
-      <c r="X45" s="177"/>
-      <c r="Y45" s="177"/>
+      <c r="V45" s="189"/>
+      <c r="W45" s="189"/>
+      <c r="X45" s="189"/>
+      <c r="Y45" s="189"/>
       <c r="Z45" s="71"/>
       <c r="AA45" s="115"/>
       <c r="AB45" s="2" t="str">
@@ -5539,33 +5532,33 @@
       <c r="AE45" s="117"/>
     </row>
     <row r="46" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="161"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="163"/>
-      <c r="N46" s="177" t="s">
+      <c r="A46" s="290"/>
+      <c r="B46" s="291"/>
+      <c r="C46" s="291"/>
+      <c r="D46" s="291"/>
+      <c r="E46" s="291"/>
+      <c r="F46" s="291"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="291"/>
+      <c r="I46" s="291"/>
+      <c r="J46" s="291"/>
+      <c r="K46" s="291"/>
+      <c r="L46" s="291"/>
+      <c r="M46" s="292"/>
+      <c r="N46" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="O46" s="177"/>
-      <c r="P46" s="177"/>
-      <c r="Q46" s="177"/>
-      <c r="R46" s="177"/>
-      <c r="S46" s="177"/>
-      <c r="T46" s="177"/>
-      <c r="U46" s="177"/>
-      <c r="V46" s="177"/>
-      <c r="W46" s="177"/>
-      <c r="X46" s="177"/>
-      <c r="Y46" s="177"/>
+      <c r="O46" s="189"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="189"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="189"/>
+      <c r="T46" s="189"/>
+      <c r="U46" s="189"/>
+      <c r="V46" s="189"/>
+      <c r="W46" s="189"/>
+      <c r="X46" s="189"/>
+      <c r="Y46" s="189"/>
       <c r="Z46" s="71"/>
       <c r="AA46" s="115"/>
       <c r="AB46" s="2" t="str">
@@ -5580,33 +5573,33 @@
       <c r="AE46" s="117"/>
     </row>
     <row r="47" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="161"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="162"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="162"/>
-      <c r="L47" s="162"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="177" t="s">
+      <c r="A47" s="290"/>
+      <c r="B47" s="291"/>
+      <c r="C47" s="291"/>
+      <c r="D47" s="291"/>
+      <c r="E47" s="291"/>
+      <c r="F47" s="291"/>
+      <c r="G47" s="291"/>
+      <c r="H47" s="291"/>
+      <c r="I47" s="291"/>
+      <c r="J47" s="291"/>
+      <c r="K47" s="291"/>
+      <c r="L47" s="291"/>
+      <c r="M47" s="292"/>
+      <c r="N47" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="O47" s="177"/>
-      <c r="P47" s="177"/>
-      <c r="Q47" s="177"/>
-      <c r="R47" s="177"/>
-      <c r="S47" s="177"/>
-      <c r="T47" s="177"/>
-      <c r="U47" s="177"/>
-      <c r="V47" s="177"/>
-      <c r="W47" s="177"/>
-      <c r="X47" s="177"/>
-      <c r="Y47" s="177"/>
+      <c r="O47" s="189"/>
+      <c r="P47" s="189"/>
+      <c r="Q47" s="189"/>
+      <c r="R47" s="189"/>
+      <c r="S47" s="189"/>
+      <c r="T47" s="189"/>
+      <c r="U47" s="189"/>
+      <c r="V47" s="189"/>
+      <c r="W47" s="189"/>
+      <c r="X47" s="189"/>
+      <c r="Y47" s="189"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="115"/>
       <c r="AB47" s="2" t="str">
@@ -5621,33 +5614,33 @@
       <c r="AE47" s="117"/>
     </row>
     <row r="48" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="182"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="184"/>
-      <c r="N48" s="178" t="s">
+      <c r="A48" s="315"/>
+      <c r="B48" s="316"/>
+      <c r="C48" s="316"/>
+      <c r="D48" s="316"/>
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="316"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="316"/>
+      <c r="K48" s="316"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="220" t="s">
         <v>136</v>
       </c>
-      <c r="O48" s="178"/>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="178"/>
-      <c r="X48" s="178"/>
-      <c r="Y48" s="178"/>
+      <c r="O48" s="220"/>
+      <c r="P48" s="220"/>
+      <c r="Q48" s="220"/>
+      <c r="R48" s="220"/>
+      <c r="S48" s="220"/>
+      <c r="T48" s="220"/>
+      <c r="U48" s="220"/>
+      <c r="V48" s="220"/>
+      <c r="W48" s="220"/>
+      <c r="X48" s="220"/>
+      <c r="Y48" s="220"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="115"/>
       <c r="AB48" s="2" t="str">
@@ -5662,34 +5655,34 @@
       <c r="AE48" s="117"/>
     </row>
     <row r="49" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="158" t="s">
+      <c r="A49" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="159"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="159"/>
-      <c r="M49" s="159"/>
-      <c r="N49" s="159"/>
-      <c r="O49" s="159"/>
-      <c r="P49" s="159"/>
-      <c r="Q49" s="159"/>
-      <c r="R49" s="159"/>
-      <c r="S49" s="159"/>
-      <c r="T49" s="159"/>
-      <c r="U49" s="159"/>
-      <c r="V49" s="159"/>
-      <c r="W49" s="159"/>
-      <c r="X49" s="159"/>
-      <c r="Y49" s="159"/>
-      <c r="Z49" s="160"/>
+      <c r="B49" s="288"/>
+      <c r="C49" s="288"/>
+      <c r="D49" s="288"/>
+      <c r="E49" s="288"/>
+      <c r="F49" s="288"/>
+      <c r="G49" s="288"/>
+      <c r="H49" s="288"/>
+      <c r="I49" s="288"/>
+      <c r="J49" s="288"/>
+      <c r="K49" s="288"/>
+      <c r="L49" s="288"/>
+      <c r="M49" s="288"/>
+      <c r="N49" s="288"/>
+      <c r="O49" s="288"/>
+      <c r="P49" s="288"/>
+      <c r="Q49" s="288"/>
+      <c r="R49" s="288"/>
+      <c r="S49" s="288"/>
+      <c r="T49" s="288"/>
+      <c r="U49" s="288"/>
+      <c r="V49" s="288"/>
+      <c r="W49" s="288"/>
+      <c r="X49" s="288"/>
+      <c r="Y49" s="288"/>
+      <c r="Z49" s="289"/>
       <c r="AA49" s="115"/>
       <c r="AB49" s="2" t="str">
         <f>PriceList!F47</f>
@@ -5703,32 +5696,32 @@
       <c r="AE49" s="117"/>
     </row>
     <row r="50" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="161"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="162"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="162"/>
-      <c r="R50" s="162"/>
-      <c r="S50" s="162"/>
-      <c r="T50" s="162"/>
-      <c r="U50" s="162"/>
-      <c r="V50" s="162"/>
-      <c r="W50" s="162"/>
-      <c r="X50" s="162"/>
-      <c r="Y50" s="162"/>
-      <c r="Z50" s="163"/>
+      <c r="A50" s="290"/>
+      <c r="B50" s="291"/>
+      <c r="C50" s="291"/>
+      <c r="D50" s="291"/>
+      <c r="E50" s="291"/>
+      <c r="F50" s="291"/>
+      <c r="G50" s="291"/>
+      <c r="H50" s="291"/>
+      <c r="I50" s="291"/>
+      <c r="J50" s="291"/>
+      <c r="K50" s="291"/>
+      <c r="L50" s="291"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="291"/>
+      <c r="O50" s="291"/>
+      <c r="P50" s="291"/>
+      <c r="Q50" s="291"/>
+      <c r="R50" s="291"/>
+      <c r="S50" s="291"/>
+      <c r="T50" s="291"/>
+      <c r="U50" s="291"/>
+      <c r="V50" s="291"/>
+      <c r="W50" s="291"/>
+      <c r="X50" s="291"/>
+      <c r="Y50" s="291"/>
+      <c r="Z50" s="292"/>
       <c r="AA50" s="115"/>
       <c r="AB50" s="2" t="str">
         <f>PriceList!F48</f>
@@ -5742,32 +5735,32 @@
       <c r="AE50" s="117"/>
     </row>
     <row r="51" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="161"/>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162"/>
-      <c r="S51" s="162"/>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="162"/>
-      <c r="W51" s="162"/>
-      <c r="X51" s="162"/>
-      <c r="Y51" s="162"/>
-      <c r="Z51" s="163"/>
+      <c r="A51" s="290"/>
+      <c r="B51" s="291"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="291"/>
+      <c r="G51" s="291"/>
+      <c r="H51" s="291"/>
+      <c r="I51" s="291"/>
+      <c r="J51" s="291"/>
+      <c r="K51" s="291"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="291"/>
+      <c r="N51" s="291"/>
+      <c r="O51" s="291"/>
+      <c r="P51" s="291"/>
+      <c r="Q51" s="291"/>
+      <c r="R51" s="291"/>
+      <c r="S51" s="291"/>
+      <c r="T51" s="291"/>
+      <c r="U51" s="291"/>
+      <c r="V51" s="291"/>
+      <c r="W51" s="291"/>
+      <c r="X51" s="291"/>
+      <c r="Y51" s="291"/>
+      <c r="Z51" s="292"/>
       <c r="AA51" s="115"/>
       <c r="AB51" s="2" t="str">
         <f>PriceList!F49</f>
@@ -5781,32 +5774,32 @@
       <c r="AE51" s="117"/>
     </row>
     <row r="52" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="161"/>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="162"/>
-      <c r="K52" s="162"/>
-      <c r="L52" s="162"/>
-      <c r="M52" s="162"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
-      <c r="Q52" s="162"/>
-      <c r="R52" s="162"/>
-      <c r="S52" s="162"/>
-      <c r="T52" s="162"/>
-      <c r="U52" s="162"/>
-      <c r="V52" s="162"/>
-      <c r="W52" s="162"/>
-      <c r="X52" s="162"/>
-      <c r="Y52" s="162"/>
-      <c r="Z52" s="163"/>
+      <c r="A52" s="290"/>
+      <c r="B52" s="291"/>
+      <c r="C52" s="291"/>
+      <c r="D52" s="291"/>
+      <c r="E52" s="291"/>
+      <c r="F52" s="291"/>
+      <c r="G52" s="291"/>
+      <c r="H52" s="291"/>
+      <c r="I52" s="291"/>
+      <c r="J52" s="291"/>
+      <c r="K52" s="291"/>
+      <c r="L52" s="291"/>
+      <c r="M52" s="291"/>
+      <c r="N52" s="291"/>
+      <c r="O52" s="291"/>
+      <c r="P52" s="291"/>
+      <c r="Q52" s="291"/>
+      <c r="R52" s="291"/>
+      <c r="S52" s="291"/>
+      <c r="T52" s="291"/>
+      <c r="U52" s="291"/>
+      <c r="V52" s="291"/>
+      <c r="W52" s="291"/>
+      <c r="X52" s="291"/>
+      <c r="Y52" s="291"/>
+      <c r="Z52" s="292"/>
       <c r="AA52" s="115"/>
       <c r="AB52" s="2" t="str">
         <f>PriceList!F50</f>
@@ -5820,32 +5813,32 @@
       <c r="AE52" s="117"/>
     </row>
     <row r="53" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="161"/>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
-      <c r="Q53" s="162"/>
-      <c r="R53" s="162"/>
-      <c r="S53" s="162"/>
-      <c r="T53" s="162"/>
-      <c r="U53" s="162"/>
-      <c r="V53" s="162"/>
-      <c r="W53" s="162"/>
-      <c r="X53" s="162"/>
-      <c r="Y53" s="162"/>
-      <c r="Z53" s="163"/>
+      <c r="A53" s="290"/>
+      <c r="B53" s="291"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="291"/>
+      <c r="E53" s="291"/>
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="291"/>
+      <c r="I53" s="291"/>
+      <c r="J53" s="291"/>
+      <c r="K53" s="291"/>
+      <c r="L53" s="291"/>
+      <c r="M53" s="291"/>
+      <c r="N53" s="291"/>
+      <c r="O53" s="291"/>
+      <c r="P53" s="291"/>
+      <c r="Q53" s="291"/>
+      <c r="R53" s="291"/>
+      <c r="S53" s="291"/>
+      <c r="T53" s="291"/>
+      <c r="U53" s="291"/>
+      <c r="V53" s="291"/>
+      <c r="W53" s="291"/>
+      <c r="X53" s="291"/>
+      <c r="Y53" s="291"/>
+      <c r="Z53" s="292"/>
       <c r="AA53" s="115"/>
       <c r="AB53" s="2" t="str">
         <f>PriceList!F51</f>
@@ -5859,32 +5852,32 @@
       <c r="AE53" s="117"/>
     </row>
     <row r="54" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="161"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="162"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="162"/>
-      <c r="Q54" s="162"/>
-      <c r="R54" s="162"/>
-      <c r="S54" s="162"/>
-      <c r="T54" s="162"/>
-      <c r="U54" s="162"/>
-      <c r="V54" s="162"/>
-      <c r="W54" s="162"/>
-      <c r="X54" s="162"/>
-      <c r="Y54" s="162"/>
-      <c r="Z54" s="163"/>
+      <c r="A54" s="290"/>
+      <c r="B54" s="291"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="291"/>
+      <c r="E54" s="291"/>
+      <c r="F54" s="291"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="291"/>
+      <c r="I54" s="291"/>
+      <c r="J54" s="291"/>
+      <c r="K54" s="291"/>
+      <c r="L54" s="291"/>
+      <c r="M54" s="291"/>
+      <c r="N54" s="291"/>
+      <c r="O54" s="291"/>
+      <c r="P54" s="291"/>
+      <c r="Q54" s="291"/>
+      <c r="R54" s="291"/>
+      <c r="S54" s="291"/>
+      <c r="T54" s="291"/>
+      <c r="U54" s="291"/>
+      <c r="V54" s="291"/>
+      <c r="W54" s="291"/>
+      <c r="X54" s="291"/>
+      <c r="Y54" s="291"/>
+      <c r="Z54" s="292"/>
       <c r="AA54" s="115"/>
       <c r="AB54" s="2" t="str">
         <f>PriceList!F52</f>
@@ -5898,34 +5891,34 @@
       <c r="AE54" s="117"/>
     </row>
     <row r="55" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="164" t="s">
+      <c r="A55" s="293" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="165"/>
-      <c r="L55" s="165"/>
-      <c r="M55" s="165"/>
-      <c r="N55" s="165"/>
-      <c r="O55" s="165"/>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="165"/>
-      <c r="R55" s="165"/>
-      <c r="S55" s="165"/>
-      <c r="T55" s="165"/>
-      <c r="U55" s="165"/>
-      <c r="V55" s="165"/>
-      <c r="W55" s="165"/>
-      <c r="X55" s="165"/>
-      <c r="Y55" s="165"/>
-      <c r="Z55" s="166"/>
+      <c r="B55" s="294"/>
+      <c r="C55" s="294"/>
+      <c r="D55" s="294"/>
+      <c r="E55" s="294"/>
+      <c r="F55" s="294"/>
+      <c r="G55" s="294"/>
+      <c r="H55" s="294"/>
+      <c r="I55" s="294"/>
+      <c r="J55" s="294"/>
+      <c r="K55" s="294"/>
+      <c r="L55" s="294"/>
+      <c r="M55" s="294"/>
+      <c r="N55" s="294"/>
+      <c r="O55" s="294"/>
+      <c r="P55" s="294"/>
+      <c r="Q55" s="294"/>
+      <c r="R55" s="294"/>
+      <c r="S55" s="294"/>
+      <c r="T55" s="294"/>
+      <c r="U55" s="294"/>
+      <c r="V55" s="294"/>
+      <c r="W55" s="294"/>
+      <c r="X55" s="294"/>
+      <c r="Y55" s="294"/>
+      <c r="Z55" s="295"/>
       <c r="AA55" s="115"/>
       <c r="AB55" s="2" t="str">
         <f>PriceList!F53</f>
@@ -5939,36 +5932,36 @@
       <c r="AE55" s="117"/>
     </row>
     <row r="56" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="131" t="s">
+      <c r="A56" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="149"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="151"/>
-      <c r="N56" s="137" t="s">
+      <c r="B56" s="297"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="297"/>
+      <c r="E56" s="297"/>
+      <c r="F56" s="297"/>
+      <c r="G56" s="298"/>
+      <c r="H56" s="299"/>
+      <c r="I56" s="300"/>
+      <c r="J56" s="301"/>
+      <c r="K56" s="326"/>
+      <c r="L56" s="327"/>
+      <c r="M56" s="328"/>
+      <c r="N56" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="O56" s="132"/>
-      <c r="P56" s="132"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="132"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="134"/>
-      <c r="V56" s="135"/>
-      <c r="W56" s="136"/>
-      <c r="X56" s="134"/>
-      <c r="Y56" s="135"/>
-      <c r="Z56" s="138"/>
+      <c r="O56" s="297"/>
+      <c r="P56" s="297"/>
+      <c r="Q56" s="297"/>
+      <c r="R56" s="297"/>
+      <c r="S56" s="297"/>
+      <c r="T56" s="298"/>
+      <c r="U56" s="299"/>
+      <c r="V56" s="300"/>
+      <c r="W56" s="301"/>
+      <c r="X56" s="299"/>
+      <c r="Y56" s="300"/>
+      <c r="Z56" s="311"/>
       <c r="AA56" s="115"/>
       <c r="AB56" s="2" t="str">
         <f>PriceList!F54</f>
@@ -5982,36 +5975,36 @@
       <c r="AE56" s="117"/>
     </row>
     <row r="57" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="296" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="135"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="154"/>
-      <c r="N57" s="137" t="s">
+      <c r="B57" s="297"/>
+      <c r="C57" s="297"/>
+      <c r="D57" s="297"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="297"/>
+      <c r="G57" s="298"/>
+      <c r="H57" s="299"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="301"/>
+      <c r="K57" s="329"/>
+      <c r="L57" s="330"/>
+      <c r="M57" s="331"/>
+      <c r="N57" s="325" t="s">
         <v>121</v>
       </c>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="133"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="135"/>
-      <c r="W57" s="136"/>
-      <c r="X57" s="134"/>
-      <c r="Y57" s="135"/>
-      <c r="Z57" s="138"/>
+      <c r="O57" s="297"/>
+      <c r="P57" s="297"/>
+      <c r="Q57" s="297"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="297"/>
+      <c r="T57" s="298"/>
+      <c r="U57" s="299"/>
+      <c r="V57" s="300"/>
+      <c r="W57" s="301"/>
+      <c r="X57" s="299"/>
+      <c r="Y57" s="300"/>
+      <c r="Z57" s="311"/>
       <c r="AA57" s="115"/>
       <c r="AB57" s="2" t="str">
         <f>PriceList!F55</f>
@@ -6025,36 +6018,36 @@
       <c r="AE57" s="117"/>
     </row>
     <row r="58" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="296" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="154"/>
-      <c r="N58" s="137" t="s">
+      <c r="B58" s="297"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="297"/>
+      <c r="G58" s="298"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="300"/>
+      <c r="J58" s="301"/>
+      <c r="K58" s="329"/>
+      <c r="L58" s="330"/>
+      <c r="M58" s="331"/>
+      <c r="N58" s="325" t="s">
         <v>29</v>
       </c>
-      <c r="O58" s="132"/>
-      <c r="P58" s="132"/>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="132"/>
-      <c r="S58" s="132"/>
-      <c r="T58" s="133"/>
-      <c r="U58" s="134"/>
-      <c r="V58" s="135"/>
-      <c r="W58" s="136"/>
-      <c r="X58" s="134"/>
-      <c r="Y58" s="135"/>
-      <c r="Z58" s="138"/>
+      <c r="O58" s="297"/>
+      <c r="P58" s="297"/>
+      <c r="Q58" s="297"/>
+      <c r="R58" s="297"/>
+      <c r="S58" s="297"/>
+      <c r="T58" s="298"/>
+      <c r="U58" s="299"/>
+      <c r="V58" s="300"/>
+      <c r="W58" s="301"/>
+      <c r="X58" s="299"/>
+      <c r="Y58" s="300"/>
+      <c r="Z58" s="311"/>
       <c r="AA58" s="115"/>
       <c r="AB58" s="2" t="str">
         <f>PriceList!F56</f>
@@ -6068,36 +6061,36 @@
       <c r="AE58" s="117"/>
     </row>
     <row r="59" spans="1:31" s="74" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="296" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="154"/>
-      <c r="N59" s="137" t="s">
+      <c r="B59" s="297"/>
+      <c r="C59" s="297"/>
+      <c r="D59" s="297"/>
+      <c r="E59" s="297"/>
+      <c r="F59" s="297"/>
+      <c r="G59" s="298"/>
+      <c r="H59" s="299"/>
+      <c r="I59" s="300"/>
+      <c r="J59" s="301"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="330"/>
+      <c r="M59" s="331"/>
+      <c r="N59" s="325" t="s">
         <v>124</v>
       </c>
-      <c r="O59" s="132"/>
-      <c r="P59" s="132"/>
-      <c r="Q59" s="132"/>
-      <c r="R59" s="132"/>
-      <c r="S59" s="132"/>
-      <c r="T59" s="133"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="135"/>
-      <c r="W59" s="136"/>
-      <c r="X59" s="134"/>
-      <c r="Y59" s="135"/>
-      <c r="Z59" s="138"/>
+      <c r="O59" s="297"/>
+      <c r="P59" s="297"/>
+      <c r="Q59" s="297"/>
+      <c r="R59" s="297"/>
+      <c r="S59" s="297"/>
+      <c r="T59" s="298"/>
+      <c r="U59" s="299"/>
+      <c r="V59" s="300"/>
+      <c r="W59" s="301"/>
+      <c r="X59" s="299"/>
+      <c r="Y59" s="300"/>
+      <c r="Z59" s="311"/>
       <c r="AA59" s="115"/>
       <c r="AB59" s="2" t="str">
         <f>PriceList!F57</f>
@@ -6111,36 +6104,36 @@
       <c r="AE59" s="117"/>
     </row>
     <row r="60" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="139" t="s">
+      <c r="A60" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="145" t="s">
+      <c r="B60" s="345"/>
+      <c r="C60" s="345"/>
+      <c r="D60" s="345"/>
+      <c r="E60" s="345"/>
+      <c r="F60" s="345"/>
+      <c r="G60" s="346"/>
+      <c r="H60" s="347"/>
+      <c r="I60" s="348"/>
+      <c r="J60" s="349"/>
+      <c r="K60" s="332"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="334"/>
+      <c r="N60" s="350" t="s">
         <v>126</v>
       </c>
-      <c r="O60" s="146"/>
-      <c r="P60" s="146"/>
-      <c r="Q60" s="146"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="146"/>
-      <c r="T60" s="147"/>
-      <c r="U60" s="142"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="144"/>
-      <c r="X60" s="142"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="148"/>
+      <c r="O60" s="351"/>
+      <c r="P60" s="351"/>
+      <c r="Q60" s="351"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="351"/>
+      <c r="T60" s="352"/>
+      <c r="U60" s="347"/>
+      <c r="V60" s="348"/>
+      <c r="W60" s="349"/>
+      <c r="X60" s="347"/>
+      <c r="Y60" s="348"/>
+      <c r="Z60" s="353"/>
       <c r="AA60" s="115"/>
       <c r="AB60" s="2" t="str">
         <f>PriceList!F58</f>
@@ -6154,34 +6147,34 @@
       <c r="AE60" s="117"/>
     </row>
     <row r="61" spans="1:31" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="125" t="s">
+      <c r="A61" s="335"/>
+      <c r="B61" s="336"/>
+      <c r="C61" s="336"/>
+      <c r="D61" s="336"/>
+      <c r="E61" s="336"/>
+      <c r="F61" s="336"/>
+      <c r="G61" s="336"/>
+      <c r="H61" s="336"/>
+      <c r="I61" s="336"/>
+      <c r="J61" s="336"/>
+      <c r="K61" s="336"/>
+      <c r="L61" s="336"/>
+      <c r="M61" s="337"/>
+      <c r="N61" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="O61" s="126"/>
-      <c r="P61" s="126"/>
-      <c r="Q61" s="126"/>
-      <c r="R61" s="126"/>
-      <c r="S61" s="126"/>
-      <c r="T61" s="127"/>
-      <c r="U61" s="128"/>
-      <c r="V61" s="129"/>
-      <c r="W61" s="129"/>
-      <c r="X61" s="129"/>
-      <c r="Y61" s="129"/>
-      <c r="Z61" s="130"/>
+      <c r="O61" s="339"/>
+      <c r="P61" s="339"/>
+      <c r="Q61" s="339"/>
+      <c r="R61" s="339"/>
+      <c r="S61" s="339"/>
+      <c r="T61" s="340"/>
+      <c r="U61" s="341"/>
+      <c r="V61" s="342"/>
+      <c r="W61" s="342"/>
+      <c r="X61" s="342"/>
+      <c r="Y61" s="342"/>
+      <c r="Z61" s="343"/>
       <c r="AA61" s="119"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="16"/>
@@ -6280,29 +6273,250 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="291">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H2:S2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:S3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="H4:S4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="U61:Z61"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="N57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="X57:Z57"/>
+    <mergeCell ref="K56:M60"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A49:Z49"/>
+    <mergeCell ref="A50:Z54"/>
+    <mergeCell ref="A55:Z55"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="N44:Z44"/>
+    <mergeCell ref="Y41:Z43"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="N46:Y46"/>
+    <mergeCell ref="N47:Y47"/>
+    <mergeCell ref="N48:Y48"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A44:M48"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="N32:Z32"/>
+    <mergeCell ref="X28:Z31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="N27:Z27"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N37:Z37"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="X21:Z23"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="A10:C10"/>
@@ -6327,250 +6541,29 @@
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="X21:Z23"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N37:Z37"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="N32:Z32"/>
-    <mergeCell ref="X28:Z31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="N27:Z27"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A49:Z49"/>
-    <mergeCell ref="A50:Z54"/>
-    <mergeCell ref="A55:Z55"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="N44:Z44"/>
-    <mergeCell ref="Y41:Z43"/>
-    <mergeCell ref="N43:W43"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="N46:Y46"/>
-    <mergeCell ref="N47:Y47"/>
-    <mergeCell ref="N48:Y48"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A44:M48"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="N57:T57"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="X57:Z57"/>
-    <mergeCell ref="K56:M60"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="N58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="U61:Z61"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="H4:S4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="AB6:AC6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
@@ -6591,10 +6584,10 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6641,14 +6634,14 @@
         <v>Rig Fire 1</v>
       </c>
       <c r="C3" s="23">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="D3" s="23">
         <v>1</v>
       </c>
       <c r="E3" s="24">
         <f t="shared" ref="E3:E8" si="0">C3*D3</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F3" s="21" t="str">
         <f>IF(MAX(A1:$A$78)&lt;ROW(A1:A14),"",VLOOKUP(ROW(A1:A14),A1:$B$78,2))</f>
@@ -6656,7 +6649,7 @@
       </c>
       <c r="G3" s="21">
         <f>IF(MAX(A1:$A$78)&lt;ROW(A1:A14),"",VLOOKUP(ROW(A1:A14),A1:$E$78,5))</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="66" t="s">
@@ -6766,7 +6759,7 @@
       </c>
       <c r="G7" s="21">
         <f>IF(MAX(A5:$A$78)&lt;ROW(A5:A18),"",VLOOKUP(ROW(A5:A18),A5:$E$78,5))</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +8121,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="39">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="D56" s="39">
         <f t="shared" si="2"/>
@@ -8761,7 +8754,7 @@
       </c>
       <c r="E78" s="28">
         <f>SUM(E3:E77)</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F78" s="21" t="str">
         <f>IF(MAX(A76:$A$78)&lt;ROW(A76:A89),"",VLOOKUP(ROW(A76:A89),A76:$B$78,2))</f>
